--- a/Data/EUDA/Cannabis_detaille/age_premiere_conso_deja_traite.xlsx
+++ b/Data/EUDA/Cannabis_detaille/age_premiere_conso_deja_traite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,82 +441,77 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Mean age.deja.deja.deja</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mean age</t>
+          <t>&amp;lt;15.deja.deja.deja</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>&amp;lt;15</t>
+          <t>15 to 19.deja.deja.deja</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>15 to 19</t>
+          <t>20 to 24.deja.deja.deja</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>20 to 24</t>
+          <t>25 to 29.deja.deja.deja</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>25 to 29</t>
+          <t>30 to 34.deja.deja.deja</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>30 to 34</t>
+          <t>35 to 39.deja.deja.deja</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>35 to 39</t>
+          <t>40 to 44.deja.deja.deja</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>40 to 44</t>
+          <t>45 to 49.deja.deja.deja</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>45 to 49</t>
+          <t>50 to 54.deja.deja.deja</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>50 to 54</t>
+          <t>55 to 59.deja.deja.deja</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>55 to 59</t>
+          <t>60 to 64.deja.deja.deja</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>60 to 64</t>
+          <t xml:space="preserve"> &gt; 64.deja.deja.deja</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 64</t>
+          <t>Not known / missing.deja.deja.deja</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>Total.deja.deja.deja</t>
         </is>
       </c>
     </row>
@@ -527,34 +522,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="D2" t="n">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="E2" t="n">
-        <v>249</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -566,12 +561,9 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="P2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="n">
         <v>458</v>
       </c>
     </row>
@@ -582,31 +574,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>464</v>
       </c>
       <c r="D3" t="n">
-        <v>464</v>
+        <v>660</v>
       </c>
       <c r="E3" t="n">
-        <v>660</v>
+        <v>78</v>
       </c>
       <c r="F3" t="n">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -621,12 +613,9 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="P3" t="n">
-        <v>277</v>
-      </c>
-      <c r="Q3" t="n">
         <v>1524</v>
       </c>
     </row>
@@ -637,31 +626,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -676,12 +665,9 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
         <v>42</v>
       </c>
     </row>
@@ -692,43 +678,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D5" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>6</v>
+      </c>
       <c r="P5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q5" t="n">
         <v>190</v>
       </c>
     </row>
@@ -739,23 +722,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="n">
         <v>2</v>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -763,11 +744,10 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
       <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
         <v>66</v>
       </c>
     </row>
@@ -778,39 +758,36 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
+        <v>117</v>
+      </c>
+      <c r="D7" t="n">
+        <v>148</v>
+      </c>
+      <c r="E7" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
-        <v>117</v>
-      </c>
-      <c r="E7" t="n">
-        <v>148</v>
-      </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
         <v>2</v>
       </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>182</v>
+      </c>
       <c r="P7" t="n">
-        <v>182</v>
-      </c>
-      <c r="Q7" t="n">
         <v>469</v>
       </c>
     </row>
@@ -820,36 +797,36 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>601</v>
+      </c>
       <c r="D8" t="n">
-        <v>601</v>
+        <v>556</v>
       </c>
       <c r="E8" t="n">
-        <v>556</v>
+        <v>39</v>
       </c>
       <c r="F8" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -858,12 +835,9 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="P8" t="n">
-        <v>252</v>
-      </c>
-      <c r="Q8" t="n">
         <v>1473</v>
       </c>
     </row>
@@ -874,24 +848,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -899,8 +871,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
+      <c r="P9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -911,22 +882,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -950,12 +921,9 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="n">
         <v>26</v>
       </c>
     </row>
@@ -966,37 +934,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2021</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>1086</v>
       </c>
       <c r="D11" t="n">
-        <v>1086</v>
+        <v>1456</v>
       </c>
       <c r="E11" t="n">
-        <v>1456</v>
+        <v>126</v>
       </c>
       <c r="F11" t="n">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="G11" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1005,12 +973,9 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>905</v>
       </c>
       <c r="P11" t="n">
-        <v>905</v>
-      </c>
-      <c r="Q11" t="n">
         <v>3649</v>
       </c>
     </row>
@@ -1021,37 +986,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>2350</v>
       </c>
       <c r="D12" t="n">
-        <v>2350</v>
+        <v>2762</v>
       </c>
       <c r="E12" t="n">
-        <v>2762</v>
+        <v>210</v>
       </c>
       <c r="F12" t="n">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="G12" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="H12" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1060,12 +1025,9 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="P12" t="n">
-        <v>1500</v>
-      </c>
-      <c r="Q12" t="n">
         <v>6921</v>
       </c>
     </row>
@@ -1076,31 +1038,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="D13" t="n">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="E13" t="n">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1115,12 +1077,9 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q13" t="n">
         <v>299</v>
       </c>
     </row>
@@ -1131,31 +1090,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="D14" t="n">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="E14" t="n">
-        <v>288</v>
+        <v>65</v>
       </c>
       <c r="F14" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1173,9 +1132,6 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
         <v>488</v>
       </c>
     </row>
@@ -1186,51 +1142,48 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
+        <v>312</v>
+      </c>
+      <c r="D15" t="n">
+        <v>238</v>
+      </c>
+      <c r="E15" t="n">
         <v>15</v>
       </c>
-      <c r="D15" t="n">
-        <v>312</v>
-      </c>
-      <c r="E15" t="n">
-        <v>238</v>
-      </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="P15" t="n">
-        <v>68</v>
-      </c>
-      <c r="Q15" t="n">
         <v>650</v>
       </c>
     </row>
@@ -1241,49 +1194,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>1009</v>
       </c>
       <c r="D16" t="n">
-        <v>1009</v>
+        <v>1569</v>
       </c>
       <c r="E16" t="n">
-        <v>1569</v>
+        <v>227</v>
       </c>
       <c r="F16" t="n">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="G16" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H16" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>391</v>
       </c>
       <c r="P16" t="n">
-        <v>391</v>
-      </c>
-      <c r="Q16" t="n">
         <v>3322</v>
       </c>
     </row>
@@ -1294,25 +1244,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1333,12 +1283,9 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P17" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q17" t="n">
         <v>76</v>
       </c>
     </row>
@@ -1348,16 +1295,14 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
       <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
         <v>10</v>
       </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1368,8 +1313,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
+      <c r="P18" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1380,19 +1324,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1407,18 +1351,15 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
       <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
         <v>51</v>
       </c>
     </row>
@@ -1429,25 +1370,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="E20" t="n">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1455,17 +1396,14 @@
       <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
       <c r="P20" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="n">
         <v>151</v>
       </c>
     </row>
@@ -1476,34 +1414,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>16</v>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="D21" t="n">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="E21" t="n">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="F21" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1515,12 +1453,9 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>963</v>
       </c>
       <c r="P21" t="n">
-        <v>963</v>
-      </c>
-      <c r="Q21" t="n">
         <v>1577</v>
       </c>
     </row>
@@ -1545,7 +1480,6 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1554,28 +1488,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="D23" t="n">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="E23" t="n">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
         <v>3</v>
       </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1593,12 +1527,9 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P23" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q23" t="n">
         <v>490</v>
       </c>
     </row>
@@ -1609,31 +1540,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="D24" t="n">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="E24" t="n">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1651,9 +1582,6 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
         <v>342</v>
       </c>
     </row>
@@ -1663,36 +1591,36 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>29</v>
+      </c>
       <c r="D25" t="n">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="E25" t="n">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="F25" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="G25" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H25" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1701,12 +1629,9 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="P25" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q25" t="n">
         <v>370</v>
       </c>
     </row>
@@ -1717,23 +1642,21 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="E26" t="n">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
-      </c>
-      <c r="G26" t="n">
         <v>3</v>
       </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1741,11 +1664,10 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>33</v>
+      </c>
       <c r="P26" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q26" t="n">
         <v>186</v>
       </c>
     </row>
@@ -1756,16 +1678,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1798,9 +1720,6 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1811,51 +1730,48 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>15</v>
+        <v>1508</v>
       </c>
       <c r="D28" t="n">
-        <v>1508</v>
+        <v>1279</v>
       </c>
       <c r="E28" t="n">
-        <v>1279</v>
+        <v>165</v>
       </c>
       <c r="F28" t="n">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="G28" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H28" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I28" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="P28" t="n">
-        <v>109</v>
-      </c>
-      <c r="Q28" t="n">
         <v>3160</v>
       </c>
     </row>
@@ -1880,7 +1796,6 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1889,51 +1804,48 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>20</v>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D30" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F30" t="n">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="G30" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="H30" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
         <v>277</v>
       </c>
     </row>
@@ -1954,7 +1866,6 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1977,7 +1888,6 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2000,7 +1910,6 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
